--- a/team_specific_matrix/Jacksonville St._A.xlsx
+++ b/team_specific_matrix/Jacksonville St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1814159292035398</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C2">
-        <v>0.5752212389380531</v>
+        <v>0.5939597315436241</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004424778761061947</v>
+        <v>0.003355704697986577</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1106194690265487</v>
+        <v>0.1174496644295302</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1283185840707965</v>
+        <v>0.1107382550335571</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01503759398496241</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6917293233082706</v>
+        <v>0.7182320441988951</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2932330827067669</v>
+        <v>0.2596685082872928</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08108108108108109</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7027027027027027</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2162162162162162</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07792207792207792</v>
+        <v>0.06</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03246753246753246</v>
+        <v>0.025</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07142857142857142</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2402597402597403</v>
+        <v>0.24</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1818181818181818</v>
+        <v>0.185</v>
       </c>
       <c r="R6">
-        <v>0.05194805194805195</v>
+        <v>0.055</v>
       </c>
       <c r="S6">
-        <v>0.3441558441558442</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06666666666666667</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008333333333333333</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03333333333333333</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1666666666666667</v>
+        <v>0.1419753086419753</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03333333333333333</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2416666666666667</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="R7">
-        <v>0.075</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S7">
-        <v>0.375</v>
+        <v>0.3950617283950617</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1118012422360248</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01863354037267081</v>
+        <v>0.0194647201946472</v>
       </c>
       <c r="E8">
-        <v>0.003105590062111801</v>
+        <v>0.0024330900243309</v>
       </c>
       <c r="F8">
-        <v>0.04347826086956522</v>
+        <v>0.04866180048661801</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1304347826086956</v>
+        <v>0.1265206812652068</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02484472049689441</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1894409937888199</v>
+        <v>0.1897810218978102</v>
       </c>
       <c r="R8">
-        <v>0.06832298136645963</v>
+        <v>0.06082725060827251</v>
       </c>
       <c r="S8">
-        <v>0.4099378881987578</v>
+        <v>0.413625304136253</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07575757575757576</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0303030303030303</v>
+        <v>0.02976190476190476</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08333333333333333</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1742424242424243</v>
+        <v>0.1726190476190476</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02272727272727273</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2121212121212121</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="R9">
-        <v>0.05303030303030303</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="S9">
-        <v>0.3484848484848485</v>
+        <v>0.3630952380952381</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1142857142857143</v>
+        <v>0.116030534351145</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02266009852216749</v>
+        <v>0.02213740458015267</v>
       </c>
       <c r="E10">
-        <v>0.001970443349753694</v>
+        <v>0.001526717557251908</v>
       </c>
       <c r="F10">
-        <v>0.07093596059113301</v>
+        <v>0.06946564885496183</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1379310344827586</v>
+        <v>0.133587786259542</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0167487684729064</v>
+        <v>0.01755725190839695</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2423645320197044</v>
+        <v>0.2297709923664122</v>
       </c>
       <c r="R10">
-        <v>0.05517241379310345</v>
+        <v>0.06030534351145038</v>
       </c>
       <c r="S10">
-        <v>0.3379310344827586</v>
+        <v>0.349618320610687</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004672897196261682</v>
+        <v>0.003460207612456748</v>
       </c>
       <c r="G11">
-        <v>0.1214953271028037</v>
+        <v>0.1384083044982699</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.102803738317757</v>
+        <v>0.09688581314878893</v>
       </c>
       <c r="K11">
-        <v>0.2009345794392523</v>
+        <v>0.2041522491349481</v>
       </c>
       <c r="L11">
-        <v>0.5560747663551402</v>
+        <v>0.5467128027681661</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01401869158878505</v>
+        <v>0.01038062283737024</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6879999999999999</v>
+        <v>0.6848484848484848</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.232</v>
+        <v>0.2242424242424242</v>
       </c>
       <c r="K12">
-        <v>0.008</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="L12">
-        <v>0.032</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04</v>
+        <v>0.04242424242424243</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7777777777777778</v>
+        <v>0.64</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1666666666666667</v>
+        <v>0.32</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05555555555555555</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03048780487804878</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1036585365853658</v>
+        <v>0.1137440758293839</v>
       </c>
       <c r="I15">
-        <v>0.07317073170731707</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="J15">
-        <v>0.4207317073170732</v>
+        <v>0.4170616113744076</v>
       </c>
       <c r="K15">
-        <v>0.07317073170731707</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006097560975609756</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03658536585365853</v>
+        <v>0.03317535545023697</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2560975609756098</v>
+        <v>0.2464454976303317</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0218978102189781</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1751824817518248</v>
+        <v>0.1648936170212766</v>
       </c>
       <c r="I16">
-        <v>0.08759124087591241</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="J16">
-        <v>0.4598540145985401</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="K16">
-        <v>0.08759124087591241</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0583941605839416</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1094890510948905</v>
+        <v>0.09574468085106383</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.004106776180698152</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2102564102564103</v>
+        <v>0.2032854209445585</v>
       </c>
       <c r="I17">
-        <v>0.0641025641025641</v>
+        <v>0.06570841889117043</v>
       </c>
       <c r="J17">
-        <v>0.4384615384615385</v>
+        <v>0.4373716632443532</v>
       </c>
       <c r="K17">
-        <v>0.07948717948717948</v>
+        <v>0.08624229979466119</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01282051282051282</v>
+        <v>0.01026694045174538</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07948717948717948</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1153846153846154</v>
+        <v>0.1190965092402464</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0198019801980198</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1485148514851485</v>
+        <v>0.1353383458646616</v>
       </c>
       <c r="I18">
-        <v>0.07920792079207921</v>
+        <v>0.07518796992481203</v>
       </c>
       <c r="J18">
-        <v>0.5148514851485149</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="K18">
-        <v>0.09900990099009901</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009900990099009901</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0594059405940594</v>
+        <v>0.06015037593984962</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06930693069306931</v>
+        <v>0.09022556390977443</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01334816462736374</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2080088987764182</v>
+        <v>0.2085470085470086</v>
       </c>
       <c r="I19">
-        <v>0.08453837597330367</v>
+        <v>0.07948717948717948</v>
       </c>
       <c r="J19">
-        <v>0.39265850945495</v>
+        <v>0.3957264957264957</v>
       </c>
       <c r="K19">
-        <v>0.1123470522803115</v>
+        <v>0.1136752136752137</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01223581757508343</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06674082313681869</v>
+        <v>0.07008547008547009</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1101223581757508</v>
+        <v>0.1042735042735043</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Jacksonville St._A.xlsx
+++ b/team_specific_matrix/Jacksonville St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.174496644295302</v>
+        <v>0.1784702549575071</v>
       </c>
       <c r="C2">
-        <v>0.5939597315436241</v>
+        <v>0.5864022662889519</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003355704697986577</v>
+        <v>0.0028328611898017</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1174496644295302</v>
+        <v>0.1218130311614731</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1107382550335571</v>
+        <v>0.1104815864022663</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005524861878453038</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01657458563535912</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7182320441988951</v>
+        <v>0.7109004739336493</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2596685082872928</v>
+        <v>0.2654028436018958</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6458333333333334</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2916666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06</v>
+        <v>0.05963302752293578</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.025</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07000000000000001</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.24</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.015</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.185</v>
+        <v>0.1880733944954129</v>
       </c>
       <c r="R6">
-        <v>0.055</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="S6">
-        <v>0.35</v>
+        <v>0.3532110091743119</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08641975308641975</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01851851851851852</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03703703703703703</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1419753086419753</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02469135802469136</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2407407407407407</v>
+        <v>0.2216216216216216</v>
       </c>
       <c r="R7">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="S7">
-        <v>0.3950617283950617</v>
+        <v>0.4108108108108108</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1167883211678832</v>
+        <v>0.125</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0194647201946472</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E8">
-        <v>0.0024330900243309</v>
+        <v>0.002155172413793103</v>
       </c>
       <c r="F8">
-        <v>0.04866180048661801</v>
+        <v>0.04956896551724138</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1265206812652068</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0218978102189781</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1897810218978102</v>
+        <v>0.1831896551724138</v>
       </c>
       <c r="R8">
-        <v>0.06082725060827251</v>
+        <v>0.0625</v>
       </c>
       <c r="S8">
-        <v>0.413625304136253</v>
+        <v>0.418103448275862</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08333333333333333</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02976190476190476</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07738095238095238</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1726190476190476</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01785714285714286</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2023809523809524</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="R9">
-        <v>0.05357142857142857</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="S9">
-        <v>0.3630952380952381</v>
+        <v>0.3602150537634409</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.116030534351145</v>
+        <v>0.1230982019363762</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02213740458015267</v>
+        <v>0.02143845089903181</v>
       </c>
       <c r="E10">
-        <v>0.001526717557251908</v>
+        <v>0.001383125864453665</v>
       </c>
       <c r="F10">
-        <v>0.06946564885496183</v>
+        <v>0.06777316735822959</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.133587786259542</v>
+        <v>0.1327800829875519</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01755725190839695</v>
+        <v>0.01798063623789765</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2297709923664122</v>
+        <v>0.2282157676348548</v>
       </c>
       <c r="R10">
-        <v>0.06030534351145038</v>
+        <v>0.06154910096818811</v>
       </c>
       <c r="S10">
-        <v>0.349618320610687</v>
+        <v>0.3457814661134163</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003460207612456748</v>
+        <v>0.003021148036253776</v>
       </c>
       <c r="G11">
-        <v>0.1384083044982699</v>
+        <v>0.1389728096676737</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09688581314878893</v>
+        <v>0.09063444108761329</v>
       </c>
       <c r="K11">
-        <v>0.2041522491349481</v>
+        <v>0.2054380664652568</v>
       </c>
       <c r="L11">
-        <v>0.5467128027681661</v>
+        <v>0.552870090634441</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01038062283737024</v>
+        <v>0.00906344410876133</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6848484848484848</v>
+        <v>0.680628272251309</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2242424242424242</v>
+        <v>0.2356020942408377</v>
       </c>
       <c r="K12">
-        <v>0.01212121212121212</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="L12">
-        <v>0.03636363636363636</v>
+        <v>0.03664921465968586</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04242424242424243</v>
+        <v>0.03664921465968586</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02369668246445497</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1137440758293839</v>
+        <v>0.1148936170212766</v>
       </c>
       <c r="I15">
-        <v>0.07582938388625593</v>
+        <v>0.08936170212765958</v>
       </c>
       <c r="J15">
-        <v>0.4170616113744076</v>
+        <v>0.4170212765957447</v>
       </c>
       <c r="K15">
-        <v>0.07582938388625593</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01421800947867299</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03317535545023697</v>
+        <v>0.03404255319148936</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2464454976303317</v>
+        <v>0.2425531914893617</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02127659574468085</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1648936170212766</v>
+        <v>0.1751152073732719</v>
       </c>
       <c r="I16">
-        <v>0.101063829787234</v>
+        <v>0.09216589861751152</v>
       </c>
       <c r="J16">
-        <v>0.4680851063829787</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="K16">
-        <v>0.09574468085106383</v>
+        <v>0.1105990783410138</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005319148936170213</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04787234042553191</v>
+        <v>0.05529953917050692</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09574468085106383</v>
+        <v>0.09216589861751152</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.004106776180698152</v>
+        <v>0.005639097744360902</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2032854209445585</v>
+        <v>0.2048872180451128</v>
       </c>
       <c r="I17">
-        <v>0.06570841889117043</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="J17">
-        <v>0.4373716632443532</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="K17">
-        <v>0.08624229979466119</v>
+        <v>0.08834586466165413</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01026694045174538</v>
+        <v>0.009398496240601503</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07392197125256673</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1190965092402464</v>
+        <v>0.112781954887218</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01503759398496241</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1353383458646616</v>
+        <v>0.16</v>
       </c>
       <c r="I18">
-        <v>0.07518796992481203</v>
+        <v>0.08</v>
       </c>
       <c r="J18">
-        <v>0.5037593984962406</v>
+        <v>0.4866666666666667</v>
       </c>
       <c r="K18">
-        <v>0.112781954887218</v>
+        <v>0.12</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007518796992481203</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06015037593984962</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09022556390977443</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01538461538461539</v>
+        <v>0.01468315301391035</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2085470085470086</v>
+        <v>0.2102009273570325</v>
       </c>
       <c r="I19">
-        <v>0.07948717948717948</v>
+        <v>0.07727975270479134</v>
       </c>
       <c r="J19">
-        <v>0.3957264957264957</v>
+        <v>0.3995363214837713</v>
       </c>
       <c r="K19">
-        <v>0.1136752136752137</v>
+        <v>0.115919629057187</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01282051282051282</v>
+        <v>0.0115919629057187</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07008547008547009</v>
+        <v>0.06800618238021638</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1042735042735043</v>
+        <v>0.1027820710973725</v>
       </c>
     </row>
   </sheetData>
